--- a/findbyfilewebelement/src/test/resources/excel/MultipleThreadPOExcelData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/MultipleThreadPOExcelData.xlsx
@@ -40,7 +40,7 @@
     <t>element2</t>
   </si>
   <si>
-    <t>file.pagefactory.AllFPMultipleThreadCacheTest$PageObjectExcelFirst</t>
+    <t>file.pagefactory.CommonValidPageObjects$PageObjectExcel</t>
   </si>
 </sst>
 </file>
